--- a/invoices.xlsx
+++ b/invoices.xlsx
@@ -1009,7 +1009,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>2024-07-31T16:24:46</t>
+          <t>2024-07-31T09:02:43</t>
         </is>
       </c>
       <c r="AS2" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2024-07-31T16:24:46</t>
+          <t>2024-07-31T09:02:44</t>
         </is>
       </c>
       <c r="AS3" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2024-07-31T16:24:46</t>
+          <t>2024-07-31T09:02:44</t>
         </is>
       </c>
       <c r="AS4" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2024-07-31T16:24:47</t>
+          <t>2024-07-31T09:02:45</t>
         </is>
       </c>
       <c r="AS5" t="n">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2024-07-26T16:24:47</t>
+          <t>2024-07-26T09:02:46</t>
         </is>
       </c>
       <c r="AS6" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>2024-07-25T16:24:47</t>
+          <t>2024-07-25T09:02:46</t>
         </is>
       </c>
       <c r="AS7" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>2024-07-25T16:24:48</t>
+          <t>2024-07-25T09:02:46</t>
         </is>
       </c>
       <c r="AS8" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>2024-07-25T16:24:48</t>
+          <t>2024-07-25T09:02:47</t>
         </is>
       </c>
       <c r="AS9" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>2024-07-25T16:24:48</t>
+          <t>2024-07-25T09:02:47</t>
         </is>
       </c>
       <c r="AS10" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2024-07-23T16:24:48</t>
+          <t>2024-07-23T09:02:48</t>
         </is>
       </c>
       <c r="AS11" t="n">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2024-07-23T16:24:48</t>
+          <t>2024-07-23T09:02:48</t>
         </is>
       </c>
       <c r="AS12" t="n">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2024-07-23T16:24:49</t>
+          <t>2024-07-23T09:02:48</t>
         </is>
       </c>
       <c r="AS13" t="n">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2024-07-23T16:24:49</t>
+          <t>2024-07-23T09:02:49</t>
         </is>
       </c>
       <c r="AS14" t="n">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>2024-07-18T16:24:50</t>
+          <t>2024-07-18T09:02:49</t>
         </is>
       </c>
       <c r="AS15" t="n">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>2024-07-18T16:24:51</t>
+          <t>2024-07-18T09:02:50</t>
         </is>
       </c>
       <c r="AS16" t="n">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>2024-07-14T16:24:51</t>
+          <t>2024-07-14T09:02:50</t>
         </is>
       </c>
       <c r="AS17" t="n">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2024-07-14T16:24:51</t>
+          <t>2024-07-14T09:02:50</t>
         </is>
       </c>
       <c r="AS18" t="n">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>2024-07-10T16:24:52</t>
+          <t>2024-07-10T09:02:51</t>
         </is>
       </c>
       <c r="AS19" t="n">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>2024-06-24T16:24:52</t>
+          <t>2024-06-24T09:02:51</t>
         </is>
       </c>
       <c r="AS20" t="n">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>2024-06-21T16:24:52</t>
+          <t>2024-06-21T09:02:52</t>
         </is>
       </c>
       <c r="AS21" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>2024-04-10T16:24:53</t>
+          <t>2024-04-10T09:02:52</t>
         </is>
       </c>
       <c r="AS22" t="n">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>2024-02-26T16:24:53</t>
+          <t>2024-02-26T09:02:53</t>
         </is>
       </c>
       <c r="AS23" t="n">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>2024-02-26T16:24:53</t>
+          <t>2024-02-26T09:02:53</t>
         </is>
       </c>
       <c r="AS24" t="n">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>2024-02-16T16:24:54</t>
+          <t>2024-02-16T09:02:54</t>
         </is>
       </c>
       <c r="AS25" t="n">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>2024-02-16T16:24:54</t>
+          <t>2024-02-16T09:02:54</t>
         </is>
       </c>
       <c r="AS26" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>2024-02-16T16:24:54</t>
+          <t>2024-02-16T09:02:55</t>
         </is>
       </c>
       <c r="AS27" t="n">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>2024-02-15T16:24:55</t>
+          <t>2024-02-15T09:02:55</t>
         </is>
       </c>
       <c r="AS28" t="n">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>2024-02-15T16:24:55</t>
+          <t>2024-02-15T09:02:55</t>
         </is>
       </c>
       <c r="AS29" t="n">
